--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
   </si>
   <si>
@@ -98,6 +110,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -342,6 +357,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -427,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -439,6 +457,7 @@
     <col min="4" max="4" width="22.15625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -460,265 +479,307 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -740,1445 +801,1664 @@
       <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
   </si>
   <si>
     <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
@@ -445,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -537,7 +531,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -549,18 +543,18 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -577,13 +571,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -600,13 +594,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -623,13 +617,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -646,10 +640,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -669,10 +663,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -692,10 +686,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -715,10 +709,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -738,108 +732,108 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>6</v>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>34</v>
@@ -848,21 +842,21 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>36</v>
@@ -871,44 +865,44 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>42</v>
@@ -917,44 +911,44 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>47</v>
@@ -963,21 +957,21 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>49</v>
@@ -986,21 +980,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>51</v>
@@ -1009,21 +1003,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>53</v>
@@ -1032,21 +1026,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>55</v>
@@ -1055,21 +1049,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>57</v>
@@ -1078,12 +1072,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>58</v>
@@ -1092,7 +1086,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>59</v>
@@ -1101,12 +1095,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>60</v>
@@ -1115,7 +1109,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>61</v>
@@ -1124,12 +1118,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>62</v>
@@ -1138,7 +1132,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>63</v>
@@ -1147,21 +1141,21 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>65</v>
@@ -1170,21 +1164,21 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>67</v>
@@ -1193,21 +1187,21 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>69</v>
@@ -1216,21 +1210,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>71</v>
@@ -1239,21 +1233,21 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>73</v>
@@ -1262,12 +1256,12 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>74</v>
@@ -1276,7 +1270,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>75</v>
@@ -1285,12 +1279,12 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>76</v>
@@ -1299,7 +1293,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>77</v>
@@ -1308,12 +1302,12 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>78</v>
@@ -1322,7 +1316,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>79</v>
@@ -1331,12 +1325,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>80</v>
@@ -1345,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>81</v>
@@ -1354,21 +1348,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>83</v>
@@ -1377,21 +1371,21 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>85</v>
@@ -1400,21 +1394,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>87</v>
@@ -1423,67 +1417,67 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>47</v>
@@ -1492,44 +1486,44 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>97</v>
@@ -1538,44 +1532,44 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>51</v>
@@ -1584,44 +1578,44 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>101</v>
@@ -1630,44 +1624,44 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>55</v>
@@ -1676,21 +1670,21 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>57</v>
@@ -1699,21 +1693,21 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>59</v>
@@ -1722,21 +1716,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>61</v>
@@ -1745,12 +1739,12 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>62</v>
@@ -1759,7 +1753,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>63</v>
@@ -1768,15 +1762,15 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -1785,18 +1779,18 @@
         <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>106</v>
@@ -1805,7 +1799,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>107</v>
@@ -1814,12 +1808,12 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>108</v>
@@ -1828,7 +1822,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>109</v>
@@ -1837,67 +1831,67 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>49</v>
@@ -1906,21 +1900,21 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>51</v>
@@ -1929,21 +1923,21 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>53</v>
@@ -1952,21 +1946,21 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>55</v>
@@ -1975,21 +1969,21 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>57</v>
@@ -1998,12 +1992,12 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>58</v>
@@ -2012,21 +2006,21 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>60</v>
@@ -2035,21 +2029,21 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>62</v>
@@ -2058,53 +2052,53 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>67</v>
@@ -2113,21 +2107,21 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>69</v>
@@ -2136,21 +2130,21 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>71</v>
@@ -2159,21 +2153,21 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>73</v>
@@ -2182,12 +2176,12 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>74</v>
@@ -2196,21 +2190,21 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>76</v>
@@ -2219,21 +2213,21 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>78</v>
@@ -2242,21 +2236,21 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>80</v>
@@ -2265,53 +2259,53 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>85</v>
@@ -2320,21 +2314,21 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>87</v>
@@ -2343,90 +2337,90 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>122</v>
@@ -2435,30 +2429,7 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,64 +32,67 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -773,1663 +776,1663 @@
         <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
@@ -47,13 +47,13 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
@@ -356,7 +356,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -454,7 +454,7 @@
     <col min="4" max="4" width="22.15625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -442,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1155,7 +1161,7 @@
         <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>45</v>
@@ -1247,7 +1253,7 @@
         <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>45</v>
@@ -1362,7 +1368,7 @@
         <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>45</v>
@@ -1434,10 +1440,10 @@
         <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1448,19 +1454,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1471,19 +1477,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1494,19 +1500,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1517,16 +1523,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>98</v>
@@ -1540,19 +1546,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1563,19 +1569,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1586,10 +1592,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
@@ -1598,7 +1604,7 @@
         <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1609,7 +1615,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>101</v>
@@ -1618,7 +1624,7 @@
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>102</v>
@@ -1632,19 +1638,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1655,19 +1661,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1678,19 +1684,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1701,19 +1707,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1724,19 +1730,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1747,19 +1753,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1770,10 +1776,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -1782,7 +1788,7 @@
         <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1793,7 +1799,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>107</v>
@@ -1802,7 +1808,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>108</v>
@@ -1816,7 +1822,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>109</v>
@@ -1825,7 +1831,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>110</v>
@@ -1839,571 +1845,571 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2414,24 +2420,70 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E86" s="2" t="s">
+      <c r="C87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -362,7 +362,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -460,7 +463,7 @@
     <col min="4" max="4" width="22.15625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2377,7 +2380,7 @@
         <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
@@ -2397,10 +2400,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
@@ -2409,7 +2412,7 @@
         <v>92</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2420,10 +2423,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2432,7 +2435,7 @@
         <v>92</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>21</v>
@@ -2443,10 +2446,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
@@ -2455,7 +2458,7 @@
         <v>29</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2466,10 +2469,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
@@ -2478,7 +2481,7 @@
         <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -363,9 +363,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2380,7 +2377,7 @@
         <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
@@ -2400,10 +2397,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
@@ -2412,7 +2409,7 @@
         <v>92</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2423,10 +2420,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2435,7 +2432,7 @@
         <v>92</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>21</v>
@@ -2446,10 +2443,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
@@ -2458,7 +2455,7 @@
         <v>29</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2469,10 +2466,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
@@ -2481,7 +2478,7 @@
         <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2377,7 +2380,7 @@
         <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
@@ -2397,10 +2400,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
@@ -2409,7 +2412,7 @@
         <v>92</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2420,10 +2423,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2432,7 +2435,7 @@
         <v>92</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>21</v>
@@ -2443,10 +2446,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
@@ -2455,7 +2458,7 @@
         <v>29</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2466,10 +2469,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
@@ -2478,7 +2481,7 @@
         <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="135">
   <si>
     <t>Sezione</t>
   </si>
@@ -339,6 +339,30 @@
   </si>
   <si>
     <t>luogoFiliazione</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Nato morto</t>
@@ -451,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1834,7 +1858,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>110</v>
@@ -1857,7 +1881,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>112</v>
@@ -1871,605 +1895,605 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>125</v>
@@ -2478,15 +2502,107 @@
         <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="2" t="s">
+      <c r="E92" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="137">
   <si>
     <t>Sezione</t>
   </si>
@@ -161,6 +161,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -215,13 +221,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -475,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1004,7 +1010,7 @@
         <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>45</v>
@@ -1096,7 +1102,7 @@
         <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>45</v>
@@ -1211,7 +1217,7 @@
         <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>45</v>
@@ -1234,7 +1240,7 @@
         <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>45</v>
@@ -1303,7 +1309,7 @@
         <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>45</v>
@@ -1418,7 +1424,7 @@
         <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>45</v>
@@ -1490,10 +1496,10 @@
         <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1504,19 +1510,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1527,19 +1533,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1550,19 +1556,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1573,16 +1579,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>100</v>
@@ -1596,19 +1602,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1619,19 +1625,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1642,10 +1648,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
@@ -1654,7 +1660,7 @@
         <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1665,10 +1671,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
@@ -1677,7 +1683,7 @@
         <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1688,19 +1694,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1711,7 +1717,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>105</v>
@@ -1720,10 +1726,10 @@
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1734,19 +1740,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1757,19 +1763,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1780,19 +1786,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1803,19 +1809,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1826,10 +1832,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
@@ -1838,7 +1844,7 @@
         <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1849,19 +1855,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1872,19 +1878,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1895,19 +1901,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1918,19 +1924,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1941,10 +1947,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -1953,7 +1959,7 @@
         <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1964,10 +1970,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
@@ -1976,7 +1982,7 @@
         <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1987,622 +1993,691 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G88" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E92" s="2" t="s">
+      <c r="C94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="139">
   <si>
     <t>Sezione</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -481,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1286,7 +1292,7 @@
         <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>45</v>
@@ -1309,7 +1315,7 @@
         <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>45</v>
@@ -1447,7 +1453,7 @@
         <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>45</v>
@@ -1519,10 +1525,10 @@
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1533,19 +1539,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1556,19 +1562,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1579,19 +1585,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1602,16 +1608,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>102</v>
@@ -1625,19 +1631,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1648,19 +1654,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1671,19 +1677,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1694,10 +1700,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
@@ -1706,7 +1712,7 @@
         <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1717,7 +1723,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>105</v>
@@ -1726,7 +1732,7 @@
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>106</v>
@@ -1740,19 +1746,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1763,19 +1769,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1786,19 +1792,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1809,19 +1815,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1832,19 +1838,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1855,19 +1861,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1878,10 +1884,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
@@ -1890,7 +1896,7 @@
         <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1901,7 +1907,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>111</v>
@@ -1910,7 +1916,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>112</v>
@@ -1924,7 +1930,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>113</v>
@@ -1933,7 +1939,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>114</v>
@@ -1947,7 +1953,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>115</v>
@@ -1956,7 +1962,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>116</v>
@@ -1970,7 +1976,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>117</v>
@@ -1979,7 +1985,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>118</v>
@@ -1993,7 +1999,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>119</v>
@@ -2016,7 +2022,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>121</v>
@@ -2025,7 +2031,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>122</v>
@@ -2039,617 +2045,617 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2660,24 +2666,70 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E95" s="2" t="s">
+      <c r="C96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -487,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1476,7 +1482,7 @@
         <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>45</v>
@@ -1548,10 +1554,10 @@
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1562,19 +1568,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1585,19 +1591,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1608,19 +1614,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1631,16 +1637,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>104</v>
@@ -1654,19 +1660,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1677,19 +1683,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1700,19 +1706,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1723,10 +1729,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
@@ -1735,7 +1741,7 @@
         <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1746,7 +1752,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>107</v>
@@ -1755,7 +1761,7 @@
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>108</v>
@@ -1769,19 +1775,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1792,19 +1798,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1815,19 +1821,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1838,19 +1844,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1861,19 +1867,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1884,19 +1890,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1907,10 +1913,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
@@ -1919,7 +1925,7 @@
         <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1930,7 +1936,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>113</v>
@@ -1939,7 +1945,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>114</v>
@@ -1953,7 +1959,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>115</v>
@@ -1962,7 +1968,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>116</v>
@@ -1976,7 +1982,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>117</v>
@@ -1985,7 +1991,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>118</v>
@@ -1999,7 +2005,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>119</v>
@@ -2008,7 +2014,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>120</v>
@@ -2022,7 +2028,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>121</v>
@@ -2045,7 +2051,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>123</v>
@@ -2054,7 +2060,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>124</v>
@@ -2068,640 +2074,640 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2712,24 +2718,70 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E97" s="2" t="s">
+      <c r="C98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -56,6 +56,12 @@
     <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
+  </si>
+  <si>
     <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
   </si>
   <si>
@@ -128,6 +134,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dati generali</t>
   </si>
   <si>
@@ -215,9 +311,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -314,6 +407,15 @@
     <t>titoloDichiarante</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Soggetto</t>
   </si>
   <si>
@@ -323,9 +425,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -407,9 +506,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -435,6 +531,12 @@
   </si>
   <si>
     <t>tipoAccertamento</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -493,16 +595,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.76953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="65.09375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="22.15625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="24.39453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -585,30 +687,30 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -625,13 +727,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -648,13 +750,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -671,13 +773,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -694,10 +796,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -717,10 +819,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -740,10 +842,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -763,10 +865,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -786,10 +888,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -808,86 +910,86 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>35</v>
@@ -896,21 +998,21 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>37</v>
@@ -919,44 +1021,44 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>43</v>
@@ -965,21 +1067,21 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>46</v>
@@ -988,21 +1090,21 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>48</v>
@@ -1011,12 +1113,12 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>49</v>
@@ -1025,7 +1127,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>50</v>
@@ -1034,21 +1136,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>52</v>
@@ -1057,21 +1159,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>54</v>
@@ -1080,21 +1182,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>56</v>
@@ -1103,21 +1205,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>58</v>
@@ -1126,12 +1228,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>59</v>
@@ -1140,7 +1242,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>60</v>
@@ -1149,12 +1251,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>61</v>
@@ -1163,7 +1265,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>62</v>
@@ -1172,12 +1274,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>63</v>
@@ -1186,1603 +1288,2546 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -595,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2340,7 +2340,7 @@
         <v>131</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2349,7 +2349,7 @@
         <v>132</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2363,7 +2363,7 @@
         <v>131</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2372,7 +2372,7 @@
         <v>132</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2386,7 +2386,7 @@
         <v>131</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2395,7 +2395,7 @@
         <v>132</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2409,7 +2409,7 @@
         <v>131</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2418,7 +2418,7 @@
         <v>132</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2432,7 +2432,7 @@
         <v>131</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2441,7 +2441,7 @@
         <v>132</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2455,7 +2455,7 @@
         <v>131</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2464,7 +2464,7 @@
         <v>132</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2478,7 +2478,7 @@
         <v>131</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2487,7 +2487,7 @@
         <v>132</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2501,7 +2501,7 @@
         <v>131</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2510,7 +2510,7 @@
         <v>132</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2524,7 +2524,7 @@
         <v>131</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2533,7 +2533,7 @@
         <v>132</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2547,7 +2547,7 @@
         <v>131</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2556,7 +2556,7 @@
         <v>132</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2570,7 +2570,7 @@
         <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2579,7 +2579,7 @@
         <v>132</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2590,25 +2590,25 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88">
@@ -2616,16 +2616,16 @@
         <v>134</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2639,16 +2639,16 @@
         <v>134</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2662,7 +2662,7 @@
         <v>134</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -2671,7 +2671,7 @@
         <v>64</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2685,16 +2685,16 @@
         <v>134</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2708,16 +2708,16 @@
         <v>134</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2731,7 +2731,7 @@
         <v>134</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
@@ -2740,7 +2740,7 @@
         <v>135</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2754,16 +2754,16 @@
         <v>134</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2777,7 +2777,7 @@
         <v>134</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
@@ -2786,7 +2786,7 @@
         <v>64</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2800,16 +2800,16 @@
         <v>134</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2823,7 +2823,7 @@
         <v>134</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
@@ -2832,7 +2832,7 @@
         <v>135</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2846,16 +2846,16 @@
         <v>134</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2869,7 +2869,7 @@
         <v>134</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2878,7 +2878,7 @@
         <v>135</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2892,7 +2892,7 @@
         <v>134</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -2901,7 +2901,7 @@
         <v>135</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2915,7 +2915,7 @@
         <v>134</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2924,7 +2924,7 @@
         <v>135</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2938,16 +2938,16 @@
         <v>134</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2961,16 +2961,16 @@
         <v>134</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2984,7 +2984,7 @@
         <v>134</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2993,7 +2993,7 @@
         <v>135</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3007,7 +3007,7 @@
         <v>134</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3016,7 +3016,7 @@
         <v>135</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3030,7 +3030,7 @@
         <v>134</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3039,7 +3039,7 @@
         <v>135</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3053,16 +3053,16 @@
         <v>134</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3076,7 +3076,7 @@
         <v>134</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3085,7 +3085,7 @@
         <v>64</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3096,25 +3096,25 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110">
@@ -3122,19 +3122,19 @@
         <v>160</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>161</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>163</v>
@@ -3145,16 +3145,16 @@
         <v>160</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>161</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3168,16 +3168,16 @@
         <v>160</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>161</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3191,7 +3191,7 @@
         <v>160</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
@@ -3200,7 +3200,7 @@
         <v>161</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3214,7 +3214,7 @@
         <v>160</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
@@ -3223,7 +3223,7 @@
         <v>161</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3237,7 +3237,7 @@
         <v>160</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
@@ -3246,7 +3246,7 @@
         <v>161</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3260,16 +3260,16 @@
         <v>160</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>161</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3283,7 +3283,7 @@
         <v>160</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3292,10 +3292,10 @@
         <v>161</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>163</v>
@@ -3306,7 +3306,7 @@
         <v>160</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3315,10 +3315,10 @@
         <v>161</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>163</v>
@@ -3329,7 +3329,7 @@
         <v>160</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -3338,10 +3338,10 @@
         <v>161</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>163</v>
@@ -3352,7 +3352,7 @@
         <v>160</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -3361,7 +3361,7 @@
         <v>161</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>162</v>
@@ -3375,19 +3375,19 @@
         <v>160</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>161</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>163</v>
@@ -3398,7 +3398,7 @@
         <v>160</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
@@ -3407,7 +3407,7 @@
         <v>161</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3421,19 +3421,19 @@
         <v>160</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>161</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>163</v>
@@ -3444,7 +3444,7 @@
         <v>160</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -3453,7 +3453,7 @@
         <v>161</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>162</v>
@@ -3467,7 +3467,7 @@
         <v>160</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3476,10 +3476,10 @@
         <v>161</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>163</v>
@@ -3490,7 +3490,7 @@
         <v>160</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3499,10 +3499,10 @@
         <v>161</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>163</v>
@@ -3513,7 +3513,7 @@
         <v>160</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3522,10 +3522,10 @@
         <v>161</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>163</v>
@@ -3536,7 +3536,7 @@
         <v>160</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3545,10 +3545,10 @@
         <v>161</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>163</v>
@@ -3559,7 +3559,7 @@
         <v>160</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3568,10 +3568,10 @@
         <v>161</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>163</v>
@@ -3582,7 +3582,7 @@
         <v>160</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3591,10 +3591,10 @@
         <v>161</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>163</v>
@@ -3605,7 +3605,7 @@
         <v>160</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -3614,7 +3614,7 @@
         <v>161</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>162</v>
@@ -3628,19 +3628,19 @@
         <v>160</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>161</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>163</v>
@@ -3651,7 +3651,7 @@
         <v>160</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
@@ -3660,7 +3660,7 @@
         <v>161</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3674,7 +3674,7 @@
         <v>160</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
@@ -3683,7 +3683,7 @@
         <v>161</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3694,25 +3694,25 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136">
@@ -3720,19 +3720,19 @@
         <v>164</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>33</v>
@@ -3743,19 +3743,19 @@
         <v>164</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>33</v>
@@ -3766,16 +3766,16 @@
         <v>164</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3789,44 +3789,21 @@
         <v>164</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
@@ -1699,7 +1699,7 @@
         <v>102</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>77</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
@@ -3378,7 +3378,7 @@
         <v>100</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>161</v>
@@ -3401,7 +3401,7 @@
         <v>102</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>161</v>
@@ -3410,7 +3410,7 @@
         <v>103</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>163</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_056.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="179">
   <si>
     <t>Sezione</t>
   </si>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -595,7 +607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1492,7 +1504,7 @@
         <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>77</v>
@@ -1515,7 +1527,7 @@
         <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>77</v>
@@ -1561,7 +1573,7 @@
         <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>77</v>
@@ -1584,7 +1596,7 @@
         <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>77</v>
@@ -1650,7 +1662,7 @@
         <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1659,7 +1671,7 @@
         <v>77</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1673,7 +1685,7 @@
         <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -1682,7 +1694,7 @@
         <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1696,7 +1708,7 @@
         <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1929,7 +1941,7 @@
         <v>122</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>77</v>
@@ -1952,7 +1964,7 @@
         <v>124</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>77</v>
@@ -2001,10 +2013,10 @@
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2015,65 +2027,65 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2084,19 +2096,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2107,19 +2119,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2130,19 +2142,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2153,19 +2165,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2176,19 +2188,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2199,19 +2211,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2234,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2245,19 +2257,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2268,19 +2280,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2291,19 +2303,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2326,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2337,19 +2349,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2360,19 +2372,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2383,19 +2395,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2406,19 +2418,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2429,19 +2441,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2464,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2475,19 +2487,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2498,19 +2510,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2521,19 +2533,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2544,19 +2556,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2567,19 +2579,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2590,111 +2602,111 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2705,19 +2717,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2728,19 +2740,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2751,19 +2763,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2774,19 +2786,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2797,19 +2809,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2820,16 +2832,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>90</v>
@@ -2843,19 +2855,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2866,19 +2878,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2889,19 +2901,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2912,19 +2924,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2935,19 +2947,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2958,19 +2970,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2981,19 +2993,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3004,19 +3016,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3027,19 +3039,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3050,19 +3062,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3073,19 +3085,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3096,600 +3108,600 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="135">
@@ -3697,22 +3709,22 @@
         <v>164</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E135" s="2" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
     </row>
     <row r="136">
@@ -3720,22 +3732,22 @@
         <v>164</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="137">
@@ -3743,22 +3755,22 @@
         <v>164</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138">
@@ -3766,22 +3778,22 @@
         <v>164</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139">
@@ -3789,21 +3801,159 @@
         <v>164</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
+      <c r="C143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E143" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>33</v>
       </c>
     </row>
